--- a/biology/Botanique/Walter_Adolpho_Ducke/Walter_Adolpho_Ducke.xlsx
+++ b/biology/Botanique/Walter_Adolpho_Ducke/Walter_Adolpho_Ducke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolpho (ou Adolfo) Ducke est un entomologiste, botaniste et ethnologue brésilien d’origine italienne, né le 19 octobre 1876 à Trieste et mort le 5 janvier 1959 à Fortaleza.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence à travailler dans la forêt amazonienne comme entomologiste pour le Museu Paraense Emílio Goeldi mais, sous l’influence des botanistes Jacques Huber (1867-1914) et Paul Le Cointe (1870-1956), il s’oriente vers l’étude des végétaux. Il fait de nombreux voyages en Amazonie où il étudie la structure du système forestier. Il fait paraître 180 articles et monographies, principalement sur les légumineuses.
 Ducke décrit 900 nouvelles espèces et 50 nouveaux genres de plantes. En 1918, tout en poursuivant son travail pour le Museu Paraense, il collabore avec d’autres institutions comme le jardin botanique de Rio de Janeiro ou l’Instituto Agronômico do Norte. Durant la première moitié du XXe siècle, il devient l’une des plus importantes autorités sur la flore amazonienne.
